--- a/19-active-filters/task-2/1/data.xlsx
+++ b/19-active-filters/task-2/1/data.xlsx
@@ -241,6 +241,1953 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>A от R</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="-0.92630000000000001"/>
+          <c:y val="0.77495999999999998"/>
+          <c:w val="0.86743000000000003"/>
+          <c:h val="0.63099000000000005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="664968979"/>
+        <c:axId val="664968980"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664968979"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968980"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664968980"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968979"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="981074" y="3505199"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" spc="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr/>
+              <a:t>dF от R</a:t>
+            </a:r>
+            <a:endParaRPr/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" spc="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout/>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr bwMode="auto">
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="664968989"/>
+        <c:axId val="664968990"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="664968989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968990"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="664968990"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr bwMode="auto">
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr bwMode="auto">
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664968989"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr bwMode="auto">
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr bwMode="auto">
+    <a:xfrm>
+      <a:off x="8448674" y="1523999"/>
+      <a:ext cx="4552949" cy="2724149"/>
+    </a:xfrm>
+    <a:prstGeom prst="rect">
+      <a:avLst/>
+    </a:prstGeom>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="+mn-lt"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.75" b="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" spc="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr bwMode="auto">
+      <a:prstGeom prst="rect">
+        <a:avLst/>
+      </a:prstGeom>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>981074</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>438149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="704500983" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="981074" y="3505199"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1901523877" name=""/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8448674" y="1523999"/>
+        <a:ext cx="4552949" cy="2724149"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -835,5 +2782,6 @@
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>